--- a/Data/replication_region_add_on.xlsx
+++ b/Data/replication_region_add_on.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeynolan/Desktop/ECON 582/ReplicationPaperNolanLewis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A9129-AB9A-CD44-A8DC-BADA6485605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D159E-7FB6-AA41-B70B-F85617D5FF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
